--- a/public/excel/Header Transaction + Lecturer.xlsx
+++ b/public/excel/Header Transaction + Lecturer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive - Bina Nusantara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitbee-frontend\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D66499D-F4B7-44AC-9D85-26437AACE61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37661257-F31D-48B2-A2B0-B3ABB84A1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FCA90E5B-9C84-4996-9E93-ED024DBC1318}"/>
   </bookViews>
@@ -36,26 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Lecture ID</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Academic Organization</t>
-  </si>
-  <si>
-    <t>Days Code</t>
-  </si>
-  <si>
-    <t>Day Name</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Course Code</t>
   </si>
   <si>
@@ -65,47 +50,33 @@
     <t>Class Section</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Multipaper</t>
-  </si>
-  <si>
-    <t>Class Attr</t>
-  </si>
-  <si>
-    <t>Crse Attr</t>
-  </si>
-  <si>
-    <t>Crse Attr Descr</t>
-  </si>
-  <si>
-    <t>Crse Lang</t>
-  </si>
-  <si>
-    <t>Crse Lang Descr</t>
-  </si>
-  <si>
-    <t>:6</t>
-  </si>
-  <si>
-    <t>%OperatorId</t>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Official Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,14 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FE95132E-69C8-467F-BC76-C3170FF0B58C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E18645-4A64-4C27-97BE-3365A5A8FC0C}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
@@ -495,66 +469,27 @@
     <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
